--- a/medicine/Psychotrope/Brasserie_de_Silly/Brasserie_de_Silly.xlsx
+++ b/medicine/Psychotrope/Brasserie_de_Silly/Brasserie_de_Silly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie de Silly est une brasserie artisanale située à Silly, en Belgique dans la province de Hainaut.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie est fondée en 1850 par Marcelin Berthelot[1], dans une ferme appelée la Cense de la Tour. Elle s'appelle alors la brasserie Meynsbrughen[2]. Cette entreprise est toujours restée au sein de la même famille depuis six générations. En 1947, l'activité brassicole finit par supplanter l'activité agricole. L'entreprise ne produit alors que des bières à haute fermentation. Dès 1950, la brasserie commercialise une pils. En 1975, avec le rachat de la brasserie Tennstedt-Decroes à Enghien, elle poursuit la production de la bière Double Enghien. Ensuite, la gamme de bière s'est diversifiée avec la création entre autres d'une bière blanche et, plus récemment, d'une bière blanche au pamplemousse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie est fondée en 1850 par Marcelin Berthelot, dans une ferme appelée la Cense de la Tour. Elle s'appelle alors la brasserie Meynsbrughen. Cette entreprise est toujours restée au sein de la même famille depuis six générations. En 1947, l'activité brassicole finit par supplanter l'activité agricole. L'entreprise ne produit alors que des bières à haute fermentation. Dès 1950, la brasserie commercialise une pils. En 1975, avec le rachat de la brasserie Tennstedt-Decroes à Enghien, elle poursuit la production de la bière Double Enghien. Ensuite, la gamme de bière s'est diversifiée avec la création entre autres d'une bière blanche et, plus récemment, d'une bière blanche au pamplemousse.
 La brasserie fait partie de l'association brassicole Belgian Family Brewers.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe actuellement 13 bières produites par la brasserie de Silly.
 Abbaye de Forest, une bière belge d'Abbaye reconnue triple blonde de haute fermentation titrant 6,5 % de volume d'alcool brassée  comme autrefois selon le respect de la tradition initié par les abbesses bénédictines et les brasseurs de l’abbaye de Forest.
